--- a/docs/Record.xlsx
+++ b/docs/Record.xlsx
@@ -32,8 +32,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -64,8 +65,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,41 +405,56 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>日期</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <v>做的事情</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="1" t="str">
         <v>修改文件的描述</v>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="1" t="str">
         <v>未完成/计划</v>
       </c>
     </row>
     <row r="2" xml:space="preserve">
-      <c r="A2" t="str">
+      <c r="A2" s="1" t="str">
         <v>2023/04/08</v>
       </c>
-      <c r="B2" t="str" xml:space="preserve">
+      <c r="B2" s="1" t="str" xml:space="preserve">
         <v xml:space="preserve">1. 回顾之前做的工作，阅读之前留下的笔记，进行整理
 2. 继续学习预学习，从GTKWave执行到NVboard
 3. 整理 Git 仓库，解决去年觉得很困惑的git仓库关联问题</v>
       </c>
-      <c r="C2" t="str" xml:space="preserve">
+      <c r="C2" s="1" t="str" xml:space="preserve">
         <v xml:space="preserve">1. notes文件夹的整体搬迁，此后PLAN仓库打算当做一些其他计算机系统方面的仓库，而不是一生一芯。
 2. verilator_test_proj，完成verilator仿真环境的基本搭建
 3. 一些描述文件的增加，比如Record.xlsx</v>
       </c>
+      <c r="D2" s="1" t="str">
+        <v xml:space="preserve">　双控门</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
+    <row r="3" xml:space="preserve">
+      <c r="A3" s="1" t="str">
         <v>2023/04/9</v>
+      </c>
+      <c r="B3" s="1" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. 完成双控门接入NVBoard
+2. 完成NVBoard的流水灯
+3. 复习verilog</v>
+      </c>
+      <c r="C3" s="1" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. 对应的代码文件夹
+2. 修改和完善预学习笔记</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <v>数字电路基础实验</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4" s="1" t="str">
         <v>2023/04/10</v>
       </c>
     </row>

--- a/docs/Record.xlsx
+++ b/docs/Record.xlsx
@@ -457,6 +457,15 @@
       <c r="A4" s="1" t="str">
         <v>2023/04/10</v>
       </c>
+      <c r="B4" s="1" t="str">
+        <v>1. 完成数字电路基础实验1和2.</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <v>digital-circuit文件夹lab1和lab2</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <v>lab3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/docs/Record.xlsx
+++ b/docs/Record.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -467,9 +467,23 @@
         <v>lab3</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="str">
+        <v>2023/04/11</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <v>数字电路基础实验3</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <v>digital-circuit文件夹lab3</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <v>lab4</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
   </ignoredErrors>
 </worksheet>
 </file>